--- a/ig/sd-ref-profils/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/sd-ref-profils/StructureDefinition-eclaire-researchstudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-04T12:57:54+00:00</t>
+    <t>2023-12-04T13:15:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1555,7 +1555,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Group)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/eclaire/StructureDefinition/eclaire-group)
 </t>
   </si>
   <si>
@@ -1654,7 +1654,7 @@
     <t>ResearchStudy.site</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Location)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/eclaire/StructureDefinition/eclaire-location)
 </t>
   </si>
   <si>
